--- a/serie_2134.xlsx
+++ b/serie_2134.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
   <si>
     <t>data</t>
   </si>
@@ -266,6 +266,312 @@
     <t>81</t>
   </si>
   <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>01/01/1999 12:00:00</t>
+  </si>
+  <si>
+    <t>01/02/1999 12:00:00</t>
+  </si>
+  <si>
+    <t>01/03/1999 12:00:00</t>
+  </si>
+  <si>
+    <t>01/04/1999 12:00:00</t>
+  </si>
+  <si>
+    <t>01/05/1999 12:00:00</t>
+  </si>
+  <si>
+    <t>01/06/1999 12:00:00</t>
+  </si>
+  <si>
+    <t>01/07/1999 12:00:00</t>
+  </si>
+  <si>
+    <t>01/08/1999 12:00:00</t>
+  </si>
+  <si>
+    <t>01/09/1999 12:00:00</t>
+  </si>
+  <si>
+    <t>01/10/1999 12:00:00</t>
+  </si>
+  <si>
+    <t>01/11/1999 12:00:00</t>
+  </si>
+  <si>
+    <t>01/12/1999 12:00:00</t>
+  </si>
+  <si>
+    <t>01/01/2000 12:00:00</t>
+  </si>
+  <si>
+    <t>01/02/2000 12:00:00</t>
+  </si>
+  <si>
+    <t>01/03/2000 12:00:00</t>
+  </si>
+  <si>
+    <t>01/04/2000 12:00:00</t>
+  </si>
+  <si>
+    <t>01/05/2000 12:00:00</t>
+  </si>
+  <si>
+    <t>01/06/2000 12:00:00</t>
+  </si>
+  <si>
+    <t>01/07/2000 12:00:00</t>
+  </si>
+  <si>
+    <t>01/08/2000 12:00:00</t>
+  </si>
+  <si>
+    <t>01/09/2000 12:00:00</t>
+  </si>
+  <si>
+    <t>01/10/2000 12:00:00</t>
+  </si>
+  <si>
+    <t>01/11/2000 12:00:00</t>
+  </si>
+  <si>
+    <t>01/12/2000 12:00:00</t>
+  </si>
+  <si>
+    <t>01/01/2001 12:00:00</t>
+  </si>
+  <si>
+    <t>01/02/2001 12:00:00</t>
+  </si>
+  <si>
+    <t>01/03/2001 12:00:00</t>
+  </si>
+  <si>
+    <t>01/04/2001 12:00:00</t>
+  </si>
+  <si>
+    <t>01/05/2001 12:00:00</t>
+  </si>
+  <si>
+    <t>01/06/2001 12:00:00</t>
+  </si>
+  <si>
+    <t>01/07/2001 12:00:00</t>
+  </si>
+  <si>
+    <t>01/08/2001 12:00:00</t>
+  </si>
+  <si>
+    <t>01/09/2001 12:00:00</t>
+  </si>
+  <si>
+    <t>01/10/2001 12:00:00</t>
+  </si>
+  <si>
+    <t>01/11/2001 12:00:00</t>
+  </si>
+  <si>
+    <t>01/12/2001 12:00:00</t>
+  </si>
+  <si>
+    <t>01/01/2002 12:00:00</t>
+  </si>
+  <si>
+    <t>01/02/2002 12:00:00</t>
+  </si>
+  <si>
+    <t>01/03/2002 12:00:00</t>
+  </si>
+  <si>
+    <t>01/04/2002 12:00:00</t>
+  </si>
+  <si>
+    <t>01/05/2002 12:00:00</t>
+  </si>
+  <si>
+    <t>01/06/2002 12:00:00</t>
+  </si>
+  <si>
+    <t>01/07/2002 12:00:00</t>
+  </si>
+  <si>
+    <t>01/08/2002 12:00:00</t>
+  </si>
+  <si>
+    <t>01/09/2002 12:00:00</t>
+  </si>
+  <si>
+    <t>01/10/2002 12:00:00</t>
+  </si>
+  <si>
+    <t>01/11/2002 12:00:00</t>
+  </si>
+  <si>
+    <t>01/12/2002 12:00:00</t>
+  </si>
+  <si>
+    <t>01/01/2003 12:00:00</t>
+  </si>
+  <si>
+    <t>01/02/2003 12:00:00</t>
+  </si>
+  <si>
+    <t>01/03/2003 12:00:00</t>
+  </si>
+  <si>
     <t>01/04/2003 12:00:00</t>
   </si>
   <si>
@@ -507,6 +813,159 @@
   </si>
   <si>
     <t>01/12/2009 12:00:00</t>
+  </si>
+  <si>
+    <t>01/01/1999</t>
+  </si>
+  <si>
+    <t>01/02/1999</t>
+  </si>
+  <si>
+    <t>01/03/1999</t>
+  </si>
+  <si>
+    <t>01/04/1999</t>
+  </si>
+  <si>
+    <t>01/05/1999</t>
+  </si>
+  <si>
+    <t>01/06/1999</t>
+  </si>
+  <si>
+    <t>01/07/1999</t>
+  </si>
+  <si>
+    <t>01/08/1999</t>
+  </si>
+  <si>
+    <t>01/09/1999</t>
+  </si>
+  <si>
+    <t>01/10/1999</t>
+  </si>
+  <si>
+    <t>01/11/1999</t>
+  </si>
+  <si>
+    <t>01/12/1999</t>
+  </si>
+  <si>
+    <t>01/01/2000</t>
+  </si>
+  <si>
+    <t>01/02/2000</t>
+  </si>
+  <si>
+    <t>01/03/2000</t>
+  </si>
+  <si>
+    <t>01/04/2000</t>
+  </si>
+  <si>
+    <t>01/05/2000</t>
+  </si>
+  <si>
+    <t>01/06/2000</t>
+  </si>
+  <si>
+    <t>01/07/2000</t>
+  </si>
+  <si>
+    <t>01/08/2000</t>
+  </si>
+  <si>
+    <t>01/09/2000</t>
+  </si>
+  <si>
+    <t>01/10/2000</t>
+  </si>
+  <si>
+    <t>01/11/2000</t>
+  </si>
+  <si>
+    <t>01/12/2000</t>
+  </si>
+  <si>
+    <t>01/01/2001</t>
+  </si>
+  <si>
+    <t>01/02/2001</t>
+  </si>
+  <si>
+    <t>01/03/2001</t>
+  </si>
+  <si>
+    <t>01/04/2001</t>
+  </si>
+  <si>
+    <t>01/05/2001</t>
+  </si>
+  <si>
+    <t>01/06/2001</t>
+  </si>
+  <si>
+    <t>01/07/2001</t>
+  </si>
+  <si>
+    <t>01/08/2001</t>
+  </si>
+  <si>
+    <t>01/09/2001</t>
+  </si>
+  <si>
+    <t>01/10/2001</t>
+  </si>
+  <si>
+    <t>01/11/2001</t>
+  </si>
+  <si>
+    <t>01/12/2001</t>
+  </si>
+  <si>
+    <t>01/01/2002</t>
+  </si>
+  <si>
+    <t>01/02/2002</t>
+  </si>
+  <si>
+    <t>01/03/2002</t>
+  </si>
+  <si>
+    <t>01/04/2002</t>
+  </si>
+  <si>
+    <t>01/05/2002</t>
+  </si>
+  <si>
+    <t>01/06/2002</t>
+  </si>
+  <si>
+    <t>01/07/2002</t>
+  </si>
+  <si>
+    <t>01/08/2002</t>
+  </si>
+  <si>
+    <t>01/09/2002</t>
+  </si>
+  <si>
+    <t>01/10/2002</t>
+  </si>
+  <si>
+    <t>01/11/2002</t>
+  </si>
+  <si>
+    <t>01/12/2002</t>
+  </si>
+  <si>
+    <t>01/01/2003</t>
+  </si>
+  <si>
+    <t>01/02/2003</t>
+  </si>
+  <si>
+    <t>01/03/2003</t>
   </si>
   <si>
     <t>01/04/2003</t>
@@ -817,13 +1276,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.93</v>
+        <v>564.71</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
@@ -831,13 +1290,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="C3" t="n">
-        <v>1015.6</v>
+        <v>723.08</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4">
@@ -845,13 +1304,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="C4" t="n">
-        <v>1428.51</v>
+        <v>723.89</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
@@ -859,13 +1318,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="C5" t="n">
-        <v>1806.85</v>
+        <v>727.1</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6">
@@ -873,13 +1332,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="C6" t="n">
-        <v>1860.45</v>
+        <v>708.42</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7">
@@ -887,13 +1346,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="C7" t="n">
-        <v>1379.18</v>
+        <v>716.6</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8">
@@ -901,13 +1360,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="C8" t="n">
-        <v>1355.97</v>
+        <v>939.34</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9">
@@ -915,13 +1374,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="C9" t="n">
-        <v>1459.41</v>
+        <v>948.08</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10">
@@ -929,13 +1388,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="C10" t="n">
-        <v>1415.46</v>
+        <v>150.65</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11">
@@ -943,13 +1402,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="C11" t="n">
-        <v>1387.58</v>
+        <v>283.1</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12">
@@ -957,13 +1416,13 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="C12" t="n">
-        <v>1431.65</v>
+        <v>100.31</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13">
@@ -971,13 +1430,13 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="C13" t="n">
-        <v>1249.89</v>
+        <v>723.91</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14">
@@ -985,13 +1444,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="C14" t="n">
-        <v>1195.2</v>
+        <v>811.3</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15">
@@ -999,13 +1458,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="C15" t="n">
-        <v>1529.34</v>
+        <v>777.23</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16">
@@ -1013,13 +1472,13 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="C16" t="n">
-        <v>1378.02</v>
+        <v>740.01</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17">
@@ -1027,13 +1486,13 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="C17" t="n">
-        <v>1245.97</v>
+        <v>648.28</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18">
@@ -1041,13 +1500,13 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="C18" t="n">
-        <v>1132.39</v>
+        <v>780.17</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19">
@@ -1055,13 +1514,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="C19" t="n">
-        <v>1264.22</v>
+        <v>817.71</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20">
@@ -1069,13 +1528,13 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="C20" t="n">
-        <v>1238.95</v>
+        <v>739.29</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21">
@@ -1083,13 +1542,13 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="C21" t="n">
-        <v>1375.05</v>
+        <v>985.4</v>
       </c>
       <c r="D21" t="s">
-        <v>184</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22">
@@ -1097,13 +1556,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="C22" t="n">
-        <v>800.55</v>
+        <v>580.02</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23">
@@ -1111,13 +1570,13 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="C23" t="n">
-        <v>981.51</v>
+        <v>648.94</v>
       </c>
       <c r="D23" t="s">
-        <v>186</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24">
@@ -1125,13 +1584,13 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="C24" t="n">
-        <v>966.6</v>
+        <v>644.13</v>
       </c>
       <c r="D24" t="s">
-        <v>187</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25">
@@ -1139,13 +1598,13 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="C25" t="n">
-        <v>1329.51</v>
+        <v>476.89</v>
       </c>
       <c r="D25" t="s">
-        <v>188</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26">
@@ -1153,13 +1612,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="C26" t="n">
-        <v>1123.15</v>
+        <v>996.39</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27">
@@ -1167,13 +1626,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="C27" t="n">
-        <v>1038.91</v>
+        <v>930.51</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28">
@@ -1181,13 +1640,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="C28" t="n">
-        <v>1021.3</v>
+        <v>1148.12</v>
       </c>
       <c r="D28" t="s">
-        <v>191</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29">
@@ -1195,13 +1654,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="C29" t="n">
-        <v>1242.82</v>
+        <v>1252.16</v>
       </c>
       <c r="D29" t="s">
-        <v>192</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30">
@@ -1209,13 +1668,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="C30" t="n">
-        <v>1149.22</v>
+        <v>1060.94</v>
       </c>
       <c r="D30" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31">
@@ -1223,13 +1682,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="C31" t="n">
-        <v>1269.74</v>
+        <v>1018.88</v>
       </c>
       <c r="D31" t="s">
-        <v>194</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32">
@@ -1237,13 +1696,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="C32" t="n">
-        <v>1153.11</v>
+        <v>1235.07</v>
       </c>
       <c r="D32" t="s">
-        <v>195</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33">
@@ -1251,13 +1710,13 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="C33" t="n">
-        <v>1089.53</v>
+        <v>1149.4</v>
       </c>
       <c r="D33" t="s">
-        <v>196</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34">
@@ -1265,13 +1724,13 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="C34" t="n">
-        <v>959.35</v>
+        <v>1471.67</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35">
@@ -1279,13 +1738,13 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="C35" t="n">
-        <v>1159.74</v>
+        <v>1338.74</v>
       </c>
       <c r="D35" t="s">
-        <v>198</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
@@ -1293,13 +1752,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="C36" t="n">
-        <v>954.34</v>
+        <v>1606.73</v>
       </c>
       <c r="D36" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37">
@@ -1307,13 +1766,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="C37" t="n">
-        <v>1237.59</v>
+        <v>1391.16</v>
       </c>
       <c r="D37" t="s">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38">
@@ -1321,13 +1780,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="C38" t="n">
-        <v>1045.31</v>
+        <v>1314.54</v>
       </c>
       <c r="D38" t="s">
-        <v>201</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39">
@@ -1335,13 +1794,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="C39" t="n">
-        <v>904.15</v>
+        <v>1354.53</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40">
@@ -1349,13 +1808,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C40" t="n">
-        <v>1237.02</v>
+        <v>1334.74</v>
       </c>
       <c r="D40" t="s">
-        <v>203</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41">
@@ -1363,13 +1822,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="C41" t="n">
-        <v>1090.75</v>
+        <v>911.6</v>
       </c>
       <c r="D41" t="s">
-        <v>204</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42">
@@ -1377,13 +1836,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="C42" t="n">
-        <v>847.17</v>
+        <v>1252.14</v>
       </c>
       <c r="D42" t="s">
-        <v>205</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43">
@@ -1391,13 +1850,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="C43" t="n">
-        <v>1056.2</v>
+        <v>1291.48</v>
       </c>
       <c r="D43" t="s">
-        <v>206</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44">
@@ -1405,13 +1864,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="C44" t="n">
-        <v>1069.03</v>
+        <v>1657.6</v>
       </c>
       <c r="D44" t="s">
-        <v>207</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45">
@@ -1419,13 +1878,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="C45" t="n">
-        <v>1412.47</v>
+        <v>1817.7</v>
       </c>
       <c r="D45" t="s">
-        <v>208</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46">
@@ -1433,13 +1892,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="C46" t="n">
-        <v>1242.39</v>
+        <v>1952.96</v>
       </c>
       <c r="D46" t="s">
-        <v>209</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47">
@@ -1447,13 +1906,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="C47" t="n">
-        <v>945.28</v>
+        <v>2010.61</v>
       </c>
       <c r="D47" t="s">
-        <v>210</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48">
@@ -1461,13 +1920,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="C48" t="n">
-        <v>1068.08</v>
+        <v>1672.67</v>
       </c>
       <c r="D48" t="s">
-        <v>211</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49">
@@ -1475,13 +1934,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="C49" t="n">
-        <v>934.13</v>
+        <v>918.96</v>
       </c>
       <c r="D49" t="s">
-        <v>212</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50">
@@ -1489,13 +1948,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="C50" t="n">
-        <v>1101.72</v>
+        <v>1495.7</v>
       </c>
       <c r="D50" t="s">
-        <v>213</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51">
@@ -1503,13 +1962,13 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="C51" t="n">
-        <v>1033.98</v>
+        <v>1377.48</v>
       </c>
       <c r="D51" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52">
@@ -1517,13 +1976,13 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="C52" t="n">
-        <v>763.93</v>
+        <v>1344.67</v>
       </c>
       <c r="D52" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53">
@@ -1531,13 +1990,13 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="C53" t="n">
-        <v>889.62</v>
+        <v>1568.93</v>
       </c>
       <c r="D53" t="s">
-        <v>216</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54">
@@ -1545,13 +2004,13 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="C54" t="n">
-        <v>896.13</v>
+        <v>1015.6</v>
       </c>
       <c r="D54" t="s">
-        <v>217</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55">
@@ -1559,13 +2018,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="C55" t="n">
-        <v>963.83</v>
+        <v>1428.51</v>
       </c>
       <c r="D55" t="s">
-        <v>218</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56">
@@ -1573,13 +2032,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="C56" t="n">
-        <v>996.59</v>
+        <v>1806.85</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57">
@@ -1587,13 +2046,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="C57" t="n">
-        <v>1068.18</v>
+        <v>1860.45</v>
       </c>
       <c r="D57" t="s">
-        <v>220</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58">
@@ -1601,13 +2060,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C58" t="n">
-        <v>1142.89</v>
+        <v>1379.18</v>
       </c>
       <c r="D58" t="s">
-        <v>221</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59">
@@ -1615,13 +2074,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="C59" t="n">
-        <v>826.45</v>
+        <v>1355.97</v>
       </c>
       <c r="D59" t="s">
-        <v>222</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60">
@@ -1629,13 +2088,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="C60" t="n">
-        <v>761.58</v>
+        <v>1459.41</v>
       </c>
       <c r="D60" t="s">
-        <v>223</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61">
@@ -1643,13 +2102,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="C61" t="n">
-        <v>707.29</v>
+        <v>1415.46</v>
       </c>
       <c r="D61" t="s">
-        <v>224</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62">
@@ -1657,13 +2116,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="C62" t="n">
-        <v>715.43</v>
+        <v>1387.58</v>
       </c>
       <c r="D62" t="s">
-        <v>225</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63">
@@ -1671,13 +2130,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="C63" t="n">
-        <v>608.79</v>
+        <v>1431.65</v>
       </c>
       <c r="D63" t="s">
-        <v>226</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64">
@@ -1685,13 +2144,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="C64" t="n">
-        <v>639.29</v>
+        <v>1249.89</v>
       </c>
       <c r="D64" t="s">
-        <v>227</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65">
@@ -1699,13 +2158,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="C65" t="n">
-        <v>617.95</v>
+        <v>1195.2</v>
       </c>
       <c r="D65" t="s">
-        <v>228</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66">
@@ -1713,13 +2172,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="C66" t="n">
-        <v>644.76</v>
+        <v>1529.34</v>
       </c>
       <c r="D66" t="s">
-        <v>229</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67">
@@ -1727,13 +2186,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="C67" t="n">
-        <v>809.46</v>
+        <v>1378.02</v>
       </c>
       <c r="D67" t="s">
-        <v>230</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68">
@@ -1741,13 +2200,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="C68" t="n">
-        <v>957.46</v>
+        <v>1245.97</v>
       </c>
       <c r="D68" t="s">
-        <v>231</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69">
@@ -1755,13 +2214,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="C69" t="n">
-        <v>1045.98</v>
+        <v>1132.39</v>
       </c>
       <c r="D69" t="s">
-        <v>232</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70">
@@ -1769,13 +2228,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="C70" t="n">
-        <v>1140.08</v>
+        <v>1264.22</v>
       </c>
       <c r="D70" t="s">
-        <v>233</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71">
@@ -1783,13 +2242,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="C71" t="n">
-        <v>907.43</v>
+        <v>1238.95</v>
       </c>
       <c r="D71" t="s">
-        <v>234</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72">
@@ -1797,13 +2256,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="C72" t="n">
-        <v>860.02</v>
+        <v>1375.05</v>
       </c>
       <c r="D72" t="s">
-        <v>235</v>
+        <v>337</v>
       </c>
     </row>
     <row r="73">
@@ -1811,13 +2270,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="C73" t="n">
-        <v>827.14</v>
+        <v>800.55</v>
       </c>
       <c r="D73" t="s">
-        <v>236</v>
+        <v>338</v>
       </c>
     </row>
     <row r="74">
@@ -1825,13 +2284,13 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="C74" t="n">
-        <v>835.93</v>
+        <v>981.51</v>
       </c>
       <c r="D74" t="s">
-        <v>237</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75">
@@ -1839,13 +2298,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="C75" t="n">
-        <v>723.3</v>
+        <v>966.6</v>
       </c>
       <c r="D75" t="s">
-        <v>238</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76">
@@ -1853,13 +2312,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="C76" t="n">
-        <v>724.0</v>
+        <v>1329.51</v>
       </c>
       <c r="D76" t="s">
-        <v>239</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77">
@@ -1867,13 +2326,13 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="C77" t="n">
-        <v>669.23</v>
+        <v>1123.15</v>
       </c>
       <c r="D77" t="s">
-        <v>240</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78">
@@ -1881,13 +2340,13 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="C78" t="n">
-        <v>300.08</v>
+        <v>1038.91</v>
       </c>
       <c r="D78" t="s">
-        <v>241</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79">
@@ -1895,13 +2354,13 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="C79" t="n">
-        <v>731.24</v>
+        <v>1021.3</v>
       </c>
       <c r="D79" t="s">
-        <v>242</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80">
@@ -1909,13 +2368,13 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="C80" t="n">
-        <v>691.92</v>
+        <v>1242.82</v>
       </c>
       <c r="D80" t="s">
-        <v>243</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81">
@@ -1923,13 +2382,13 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="C81" t="n">
-        <v>713.61</v>
+        <v>1149.22</v>
       </c>
       <c r="D81" t="s">
-        <v>244</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82">
@@ -1937,13 +2396,727 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="C82" t="n">
+        <v>1269.74</v>
+      </c>
+      <c r="D82" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1153.11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>217</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1089.53</v>
+      </c>
+      <c r="D84" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" t="n">
+        <v>959.35</v>
+      </c>
+      <c r="D85" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>219</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1159.74</v>
+      </c>
+      <c r="D86" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" t="n">
+        <v>954.34</v>
+      </c>
+      <c r="D87" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1237.59</v>
+      </c>
+      <c r="D88" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1045.31</v>
+      </c>
+      <c r="D89" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>223</v>
+      </c>
+      <c r="C90" t="n">
+        <v>904.15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>224</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1237.02</v>
+      </c>
+      <c r="D91" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>225</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1090.75</v>
+      </c>
+      <c r="D92" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>226</v>
+      </c>
+      <c r="C93" t="n">
+        <v>847.17</v>
+      </c>
+      <c r="D93" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>227</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1056.2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>228</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1069.03</v>
+      </c>
+      <c r="D95" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>229</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1412.47</v>
+      </c>
+      <c r="D96" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1242.39</v>
+      </c>
+      <c r="D97" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C98" t="n">
+        <v>945.28</v>
+      </c>
+      <c r="D98" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1068.08</v>
+      </c>
+      <c r="D99" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>233</v>
+      </c>
+      <c r="C100" t="n">
+        <v>934.13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>234</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1101.72</v>
+      </c>
+      <c r="D101" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1033.98</v>
+      </c>
+      <c r="D102" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>236</v>
+      </c>
+      <c r="C103" t="n">
+        <v>763.93</v>
+      </c>
+      <c r="D103" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>237</v>
+      </c>
+      <c r="C104" t="n">
+        <v>889.62</v>
+      </c>
+      <c r="D104" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>238</v>
+      </c>
+      <c r="C105" t="n">
+        <v>896.13</v>
+      </c>
+      <c r="D105" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>239</v>
+      </c>
+      <c r="C106" t="n">
+        <v>963.83</v>
+      </c>
+      <c r="D106" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>240</v>
+      </c>
+      <c r="C107" t="n">
+        <v>996.59</v>
+      </c>
+      <c r="D107" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>241</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1068.18</v>
+      </c>
+      <c r="D108" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>242</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1142.89</v>
+      </c>
+      <c r="D109" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>243</v>
+      </c>
+      <c r="C110" t="n">
+        <v>826.45</v>
+      </c>
+      <c r="D110" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>244</v>
+      </c>
+      <c r="C111" t="n">
+        <v>761.58</v>
+      </c>
+      <c r="D111" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>245</v>
+      </c>
+      <c r="C112" t="n">
+        <v>707.29</v>
+      </c>
+      <c r="D112" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>246</v>
+      </c>
+      <c r="C113" t="n">
+        <v>715.43</v>
+      </c>
+      <c r="D113" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>247</v>
+      </c>
+      <c r="C114" t="n">
+        <v>608.79</v>
+      </c>
+      <c r="D114" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>248</v>
+      </c>
+      <c r="C115" t="n">
+        <v>639.29</v>
+      </c>
+      <c r="D115" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>249</v>
+      </c>
+      <c r="C116" t="n">
+        <v>617.95</v>
+      </c>
+      <c r="D116" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>250</v>
+      </c>
+      <c r="C117" t="n">
+        <v>644.76</v>
+      </c>
+      <c r="D117" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>251</v>
+      </c>
+      <c r="C118" t="n">
+        <v>809.46</v>
+      </c>
+      <c r="D118" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>252</v>
+      </c>
+      <c r="C119" t="n">
+        <v>957.46</v>
+      </c>
+      <c r="D119" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>253</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1045.98</v>
+      </c>
+      <c r="D120" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>254</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1140.08</v>
+      </c>
+      <c r="D121" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>255</v>
+      </c>
+      <c r="C122" t="n">
+        <v>907.43</v>
+      </c>
+      <c r="D122" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>256</v>
+      </c>
+      <c r="C123" t="n">
+        <v>860.02</v>
+      </c>
+      <c r="D123" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" t="s">
+        <v>257</v>
+      </c>
+      <c r="C124" t="n">
+        <v>827.14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s">
+        <v>258</v>
+      </c>
+      <c r="C125" t="n">
+        <v>835.93</v>
+      </c>
+      <c r="D125" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" t="s">
+        <v>259</v>
+      </c>
+      <c r="C126" t="n">
+        <v>723.3</v>
+      </c>
+      <c r="D126" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="D127" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
+        <v>261</v>
+      </c>
+      <c r="C128" t="n">
+        <v>669.23</v>
+      </c>
+      <c r="D128" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>262</v>
+      </c>
+      <c r="C129" t="n">
+        <v>300.08</v>
+      </c>
+      <c r="D129" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" t="s">
+        <v>263</v>
+      </c>
+      <c r="C130" t="n">
+        <v>731.24</v>
+      </c>
+      <c r="D130" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131" t="n">
+        <v>691.92</v>
+      </c>
+      <c r="D131" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" t="s">
+        <v>265</v>
+      </c>
+      <c r="C132" t="n">
+        <v>713.61</v>
+      </c>
+      <c r="D132" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" t="s">
+        <v>266</v>
+      </c>
+      <c r="C133" t="n">
         <v>611.46</v>
       </c>
-      <c r="D82" t="s">
-        <v>245</v>
+      <c r="D133" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
